--- a/teaching/traditional_assets/database/data/bangladesh/bangladesh_insurance_general.xlsx
+++ b/teaching/traditional_assets/database/data/bangladesh/bangladesh_insurance_general.xlsx
@@ -591,46 +591,46 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.08135000000000001</v>
+        <v>0.03125</v>
       </c>
       <c r="E2">
-        <v>0.0431</v>
+        <v>0.134</v>
       </c>
       <c r="G2">
-        <v>0.3911392405063291</v>
+        <v>0.3926582278481013</v>
       </c>
       <c r="H2">
-        <v>0.3911392405063291</v>
+        <v>0.3926582278481013</v>
       </c>
       <c r="I2">
-        <v>0.3844514767932489</v>
+        <v>0.4139240506329114</v>
       </c>
       <c r="J2">
-        <v>0.2916928668593977</v>
+        <v>0.2986642119648333</v>
       </c>
       <c r="K2">
-        <v>9.959</v>
+        <v>11.64</v>
       </c>
       <c r="L2">
-        <v>0.2101054852320675</v>
+        <v>0.2946835443037975</v>
       </c>
       <c r="M2">
-        <v>3.171</v>
+        <v>4.7028</v>
       </c>
       <c r="N2">
-        <v>0.0283125</v>
+        <v>0.02926446795270691</v>
       </c>
       <c r="O2">
-        <v>0.3184054623958228</v>
+        <v>0.404020618556701</v>
       </c>
       <c r="P2">
-        <v>3.171</v>
+        <v>4.7028</v>
       </c>
       <c r="Q2">
-        <v>0.0283125</v>
+        <v>0.02926446795270691</v>
       </c>
       <c r="R2">
-        <v>0.3184054623958228</v>
+        <v>0.404020618556701</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -639,73 +639,73 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>65.28</v>
+        <v>36.99</v>
       </c>
       <c r="V2">
-        <v>0.5828571428571429</v>
+        <v>0.2301804604853765</v>
       </c>
       <c r="W2">
-        <v>0.08358674757830463</v>
+        <v>0.1052374893977947</v>
       </c>
       <c r="X2">
-        <v>0.06605829745732379</v>
+        <v>0.06353781670736119</v>
       </c>
       <c r="Y2">
-        <v>0.01752845012098084</v>
+        <v>0.04169967269043355</v>
       </c>
       <c r="Z2">
-        <v>1.013470173187941</v>
+        <v>0.9139287366959741</v>
       </c>
       <c r="AA2">
-        <v>0.3758813796394838</v>
+        <v>0.5586622342402616</v>
       </c>
       <c r="AB2">
-        <v>0.06605829745732379</v>
+        <v>0.06353781670736119</v>
       </c>
       <c r="AC2">
-        <v>0.30982308218216</v>
+        <v>0.4947803635985127</v>
       </c>
       <c r="AD2">
-        <v>2.09</v>
+        <v>0.952</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>2.09</v>
+        <v>0.952</v>
       </c>
       <c r="AG2">
-        <v>-63.19</v>
+        <v>-36.038</v>
       </c>
       <c r="AH2">
-        <v>0.01831887106670172</v>
+        <v>0.005889194071214708</v>
       </c>
       <c r="AI2">
-        <v>0.01884750653801064</v>
+        <v>0.008084788368775053</v>
       </c>
       <c r="AJ2">
-        <v>-1.294611759885269</v>
+        <v>-0.2890856876995396</v>
       </c>
       <c r="AK2">
-        <v>-1.385441789081342</v>
+        <v>-0.4462247096406726</v>
       </c>
       <c r="AL2">
-        <v>0.058</v>
+        <v>0.113</v>
       </c>
       <c r="AM2">
-        <v>0.058</v>
+        <v>0.113</v>
       </c>
       <c r="AN2">
-        <v>0.1093668236525379</v>
+        <v>0.05477560414269275</v>
       </c>
       <c r="AO2">
-        <v>314.1896551724138</v>
+        <v>144.6902654867257</v>
       </c>
       <c r="AP2">
-        <v>-3.306645735217164</v>
+        <v>-2.073532796317607</v>
       </c>
       <c r="AQ2">
-        <v>314.1896551724138</v>
+        <v>144.6902654867257</v>
       </c>
     </row>
     <row r="3">
@@ -716,7 +716,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>United Insurance Company Limited (DSE:UNITEDINS)</t>
+          <t>Peoples Insurance Company Limited (DSE:PEOPLESINS)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -725,46 +725,43 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.207</v>
-      </c>
-      <c r="E3">
-        <v>0.0431</v>
+        <v>0.0382</v>
       </c>
       <c r="G3">
-        <v>0.6836538461538462</v>
+        <v>0.2264957264957265</v>
       </c>
       <c r="H3">
-        <v>0.6836538461538462</v>
+        <v>0.2264957264957265</v>
       </c>
       <c r="I3">
-        <v>0.6403846153846153</v>
+        <v>0.2663817663817664</v>
       </c>
       <c r="J3">
-        <v>0.5563536585365854</v>
+        <v>0.194017094017094</v>
       </c>
       <c r="K3">
-        <v>1.78</v>
+        <v>1.36</v>
       </c>
       <c r="L3">
-        <v>0.1711538461538462</v>
+        <v>0.1937321937321937</v>
       </c>
       <c r="M3">
-        <v>0.336</v>
+        <v>0.4158</v>
       </c>
       <c r="N3">
-        <v>0.01094462540716612</v>
+        <v>0.01506521739130435</v>
       </c>
       <c r="O3">
-        <v>0.1887640449438202</v>
+        <v>0.305735294117647</v>
       </c>
       <c r="P3">
-        <v>0.336</v>
+        <v>0.4158</v>
       </c>
       <c r="Q3">
-        <v>0.01094462540716612</v>
+        <v>0.01506521739130435</v>
       </c>
       <c r="R3">
-        <v>0.1887640449438202</v>
+        <v>0.305735294117647</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -773,31 +770,31 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>5.78</v>
+        <v>15.6</v>
       </c>
       <c r="V3">
-        <v>0.1882736156351792</v>
+        <v>0.5652173913043478</v>
       </c>
       <c r="W3">
-        <v>0.1141025641025641</v>
+        <v>0.09444444444444444</v>
       </c>
       <c r="X3">
-        <v>0.06605829745732379</v>
+        <v>0.06353781670736119</v>
       </c>
       <c r="Y3">
-        <v>0.04804426664524032</v>
+        <v>0.03090662773708325</v>
       </c>
       <c r="Z3">
-        <v>1.004830917874396</v>
+        <v>7.799999999999996</v>
       </c>
       <c r="AA3">
-        <v>0.5590413573700955</v>
+        <v>1.513333333333333</v>
       </c>
       <c r="AB3">
-        <v>0.06605829745732379</v>
+        <v>0.06353781670736119</v>
       </c>
       <c r="AC3">
-        <v>0.4929830599127717</v>
+        <v>1.449795516625971</v>
       </c>
       <c r="AD3">
         <v>0</v>
@@ -809,7 +806,7 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>-5.78</v>
+        <v>-15.6</v>
       </c>
       <c r="AH3">
         <v>0</v>
@@ -818,10 +815,10 @@
         <v>0</v>
       </c>
       <c r="AJ3">
-        <v>-0.2319422150882825</v>
+        <v>-1.3</v>
       </c>
       <c r="AK3">
-        <v>-0.5293040293040294</v>
+        <v>-156.0000000000005</v>
       </c>
       <c r="AL3">
         <v>0</v>
@@ -833,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>-0.857566765578635</v>
+        <v>-7.393364928909953</v>
       </c>
     </row>
     <row r="4">
@@ -844,7 +841,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Peoples Insurance Company Limited (DSE:PEOPLESINS)</t>
+          <t>Bangladesh General Insurance Company Limited (DSE:BGIC)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -853,43 +850,46 @@
         </is>
       </c>
       <c r="D4">
-        <v>0.0567</v>
+        <v>0.0243</v>
+      </c>
+      <c r="E4">
+        <v>0.134</v>
       </c>
       <c r="G4">
-        <v>0.1968616262482168</v>
+        <v>0.3376623376623377</v>
       </c>
       <c r="H4">
-        <v>0.1968616262482168</v>
+        <v>0.3376623376623377</v>
       </c>
       <c r="I4">
-        <v>0.1373751783166904</v>
+        <v>0.3327922077922078</v>
       </c>
       <c r="J4">
-        <v>0.1065620542082739</v>
+        <v>0.2638071563852813</v>
       </c>
       <c r="K4">
-        <v>0.747</v>
+        <v>1.52</v>
       </c>
       <c r="L4">
-        <v>0.1065620542082739</v>
+        <v>0.2467532467532468</v>
       </c>
       <c r="M4">
-        <v>0.547</v>
+        <v>0.701</v>
       </c>
       <c r="N4">
-        <v>0.04635593220338983</v>
+        <v>0.02577205882352941</v>
       </c>
       <c r="O4">
-        <v>0.7322623828647926</v>
+        <v>0.4611842105263158</v>
       </c>
       <c r="P4">
-        <v>0.547</v>
+        <v>0.701</v>
       </c>
       <c r="Q4">
-        <v>0.04635593220338983</v>
+        <v>0.02577205882352941</v>
       </c>
       <c r="R4">
-        <v>0.7322623828647926</v>
+        <v>0.4611842105263158</v>
       </c>
       <c r="S4">
         <v>0</v>
@@ -898,67 +898,73 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>13.1</v>
+        <v>11</v>
       </c>
       <c r="V4">
-        <v>1.110169491525424</v>
+        <v>0.4044117647058824</v>
       </c>
       <c r="W4">
-        <v>0.05151724137931035</v>
+        <v>0.116030534351145</v>
       </c>
       <c r="X4">
-        <v>0.06605829745732379</v>
+        <v>0.06496155939592943</v>
       </c>
       <c r="Y4">
-        <v>-0.01454105607801345</v>
+        <v>0.05106897495521562</v>
       </c>
       <c r="Z4">
-        <v>5.007142857142855</v>
+        <v>3.242105263157894</v>
       </c>
       <c r="AA4">
-        <v>0.5335714285714285</v>
+        <v>0.8552905701754384</v>
       </c>
       <c r="AB4">
-        <v>0.06605829745732379</v>
+        <v>0.06422592457613664</v>
       </c>
       <c r="AC4">
-        <v>0.4675131311141047</v>
+        <v>0.7910646455993018</v>
       </c>
       <c r="AD4">
-        <v>0</v>
+        <v>0.952</v>
       </c>
       <c r="AE4">
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>0</v>
+        <v>0.952</v>
       </c>
       <c r="AG4">
-        <v>-13.1</v>
+        <v>-10.048</v>
       </c>
       <c r="AH4">
-        <v>0</v>
+        <v>0.03381642512077294</v>
       </c>
       <c r="AI4">
-        <v>0</v>
+        <v>0.072939013178057</v>
       </c>
       <c r="AJ4">
-        <v>10.07692307692309</v>
+        <v>-0.585820895522388</v>
       </c>
       <c r="AK4">
-        <v>-8.733333333333333</v>
+        <v>-4.896686159844055</v>
       </c>
       <c r="AL4">
-        <v>0</v>
+        <v>0.113</v>
       </c>
       <c r="AM4">
-        <v>0</v>
+        <v>0.113</v>
       </c>
       <c r="AN4">
-        <v>0</v>
+        <v>0.4387096774193548</v>
+      </c>
+      <c r="AO4">
+        <v>18.14159292035398</v>
       </c>
       <c r="AP4">
-        <v>-10.91666666666667</v>
+        <v>-4.630414746543779</v>
+      </c>
+      <c r="AQ4">
+        <v>18.14159292035398</v>
       </c>
     </row>
     <row r="5">
@@ -978,46 +984,46 @@
         </is>
       </c>
       <c r="D5">
-        <v>0.106</v>
+        <v>0.0491</v>
       </c>
       <c r="E5">
-        <v>0.164</v>
+        <v>0.153</v>
       </c>
       <c r="G5">
-        <v>0.3641666666666667</v>
+        <v>0.4794520547945206</v>
       </c>
       <c r="H5">
-        <v>0.3641666666666667</v>
+        <v>0.4794520547945206</v>
       </c>
       <c r="I5">
-        <v>0.3920833333333333</v>
+        <v>0.4931506849315069</v>
       </c>
       <c r="J5">
-        <v>0.2791030771967271</v>
+        <v>0.3529680365296805</v>
       </c>
       <c r="K5">
-        <v>6.67</v>
+        <v>7.71</v>
       </c>
       <c r="L5">
-        <v>0.2779166666666666</v>
+        <v>0.3520547945205479</v>
       </c>
       <c r="M5">
-        <v>1.64</v>
+        <v>3.03</v>
       </c>
       <c r="N5">
-        <v>0.03042671614100186</v>
+        <v>0.03935064935064935</v>
       </c>
       <c r="O5">
-        <v>0.2458770614692654</v>
+        <v>0.3929961089494163</v>
       </c>
       <c r="P5">
-        <v>1.64</v>
+        <v>3.03</v>
       </c>
       <c r="Q5">
-        <v>0.03042671614100186</v>
+        <v>0.03935064935064935</v>
       </c>
       <c r="R5">
-        <v>0.2458770614692654</v>
+        <v>0.3929961089494163</v>
       </c>
       <c r="S5">
         <v>0</v>
@@ -1026,31 +1032,31 @@
         <v>0</v>
       </c>
       <c r="U5">
-        <v>35.3</v>
+        <v>3.08</v>
       </c>
       <c r="V5">
-        <v>0.6549165120593692</v>
+        <v>0.04</v>
       </c>
       <c r="W5">
-        <v>0.1081037277147488</v>
+        <v>0.1189814814814815</v>
       </c>
       <c r="X5">
-        <v>0.06605829745732379</v>
+        <v>0.06353781670736119</v>
       </c>
       <c r="Y5">
-        <v>0.04204543025742499</v>
+        <v>0.05544366477412029</v>
       </c>
       <c r="Z5">
-        <v>0.781758957654723</v>
+        <v>0.7423728813559322</v>
       </c>
       <c r="AA5">
-        <v>0.2181913307075391</v>
+        <v>0.2620338983050848</v>
       </c>
       <c r="AB5">
-        <v>0.06605829745732379</v>
+        <v>0.06353781670736119</v>
       </c>
       <c r="AC5">
-        <v>0.1521330332502153</v>
+        <v>0.1984960815977236</v>
       </c>
       <c r="AD5">
         <v>0</v>
@@ -1062,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="AG5">
-        <v>-35.3</v>
+        <v>-3.08</v>
       </c>
       <c r="AH5">
         <v>0</v>
@@ -1071,10 +1077,10 @@
         <v>0</v>
       </c>
       <c r="AJ5">
-        <v>-1.897849462365591</v>
+        <v>-0.04166666666666666</v>
       </c>
       <c r="AK5">
-        <v>-1.196610169491525</v>
+        <v>-0.04534746760895171</v>
       </c>
       <c r="AL5">
         <v>0</v>
@@ -1086,7 +1092,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>-3.580121703853955</v>
+        <v>-0.2725663716814159</v>
       </c>
     </row>
     <row r="6">
@@ -1097,7 +1103,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Bangladesh General Insurance Company Limited (DSE:BGIC)</t>
+          <t>United Insurance Company Limited (DSE:UNITEDINS)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1106,46 +1112,46 @@
         </is>
       </c>
       <c r="D6">
-        <v>0.0031</v>
+        <v>0.0072</v>
       </c>
       <c r="E6">
-        <v>-0.029</v>
+        <v>-0.0488</v>
       </c>
       <c r="G6">
-        <v>0.2186978297161937</v>
+        <v>0.3031674208144797</v>
       </c>
       <c r="H6">
-        <v>0.2186978297161937</v>
+        <v>0.3031674208144797</v>
       </c>
       <c r="I6">
-        <v>0.1986644407345576</v>
+        <v>0.3687782805429864</v>
       </c>
       <c r="J6">
-        <v>0.1348080133555926</v>
+        <v>0.2394782414390258</v>
       </c>
       <c r="K6">
-        <v>0.762</v>
+        <v>1.05</v>
       </c>
       <c r="L6">
-        <v>0.127212020033389</v>
+        <v>0.2375565610859729</v>
       </c>
       <c r="M6">
-        <v>0.648</v>
+        <v>0.556</v>
       </c>
       <c r="N6">
-        <v>0.04153846153846154</v>
+        <v>0.01923875432525952</v>
       </c>
       <c r="O6">
-        <v>0.8503937007874016</v>
+        <v>0.5295238095238095</v>
       </c>
       <c r="P6">
-        <v>0.648</v>
+        <v>0.556</v>
       </c>
       <c r="Q6">
-        <v>0.04153846153846154</v>
+        <v>0.01923875432525952</v>
       </c>
       <c r="R6">
-        <v>0.8503937007874016</v>
+        <v>0.5295238095238095</v>
       </c>
       <c r="S6">
         <v>0</v>
@@ -1154,73 +1160,67 @@
         <v>0</v>
       </c>
       <c r="U6">
-        <v>11.1</v>
+        <v>7.31</v>
       </c>
       <c r="V6">
-        <v>0.7115384615384616</v>
+        <v>0.2529411764705882</v>
       </c>
       <c r="W6">
-        <v>0.05906976744186047</v>
+        <v>0.062874251497006</v>
       </c>
       <c r="X6">
-        <v>0.07076665523067989</v>
+        <v>0.06353781670736119</v>
       </c>
       <c r="Y6">
-        <v>-0.01169688778881942</v>
+        <v>-0.0006635652103551964</v>
       </c>
       <c r="Z6">
-        <v>1.386574074074074</v>
+        <v>0.4047619047619048</v>
       </c>
       <c r="AA6">
-        <v>0.1869212962962963</v>
+        <v>0.09693166915389141</v>
       </c>
       <c r="AB6">
-        <v>0.06843981548045994</v>
+        <v>0.06353781670736119</v>
       </c>
       <c r="AC6">
-        <v>0.1184814808158363</v>
+        <v>0.03339385244653022</v>
       </c>
       <c r="AD6">
-        <v>2.09</v>
+        <v>0</v>
       </c>
       <c r="AE6">
         <v>0</v>
       </c>
       <c r="AF6">
-        <v>2.09</v>
+        <v>0</v>
       </c>
       <c r="AG6">
-        <v>-9.01</v>
+        <v>-7.31</v>
       </c>
       <c r="AH6">
-        <v>0.1181458451102318</v>
+        <v>0</v>
       </c>
       <c r="AI6">
-        <v>0.1413116970926302</v>
+        <v>0</v>
       </c>
       <c r="AJ6">
-        <v>-1.367223065250379</v>
+        <v>-0.3385826771653543</v>
       </c>
       <c r="AK6">
-        <v>-2.441734417344174</v>
+        <v>-0.6838166510757716</v>
       </c>
       <c r="AL6">
-        <v>0.058</v>
+        <v>0</v>
       </c>
       <c r="AM6">
-        <v>0.058</v>
+        <v>0</v>
       </c>
       <c r="AN6">
-        <v>1.595419847328244</v>
-      </c>
-      <c r="AO6">
-        <v>20.51724137931034</v>
+        <v>0</v>
       </c>
       <c r="AP6">
-        <v>-6.877862595419847</v>
-      </c>
-      <c r="AQ6">
-        <v>20.51724137931034</v>
+        <v>-4.061111111111111</v>
       </c>
     </row>
   </sheetData>
